--- a/1.train_results/medsam3d对比综合结果.xlsx
+++ b/1.train_results/medsam3d对比综合结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\3D_segmentation\3D-DRSAM\3D-DRSAM-Github\1.train_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5251C048-025B-4327-ABDF-95BBFD59867F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913BDE8-5595-44F5-B006-02CCD3A4F4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3765" windowWidth="14880" windowHeight="10710" tabRatio="916" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" tabRatio="916" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="611SamMED3d" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="0618对比实验" sheetId="10" r:id="rId10"/>
     <sheet name="0620MemorizingSAM" sheetId="11" r:id="rId11"/>
     <sheet name="0621Fastsam+Medical-samadapter" sheetId="12" r:id="rId12"/>
+    <sheet name="0625-3Dunet" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="1387">
   <si>
     <t>5e-6 steplr-10）</t>
   </si>
@@ -4517,12 +4518,161 @@
   <si>
     <t>6. FastSAM3D</t>
   </si>
+  <si>
+    <t>Total score: 0.22571364045143127, IOU: 0.011753039213209244, DICE: 0.021950966587038653 || @ epoch 199.</t>
+  </si>
+  <si>
+    <t>MedLSAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning: Empty segment for part 3 in direction 0</t>
+  </si>
+  <si>
+    <t>Warning: Empty segment for part 4 in direction 0</t>
+  </si>
+  <si>
+    <t>Warning: Empty segment for part 0 in direction 0</t>
+  </si>
+  <si>
+    <t>Warning: Empty segment for part 1 in direction 0</t>
+  </si>
+  <si>
+    <t>Warning: Empty segment for part 2 in direction 0</t>
+  </si>
+  <si>
+    <t>Warning: Empty segment for part 5 in direction 0</t>
+  </si>
+  <si>
+    <t>主要问题是缺标签导致结果出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class 0: Average Dice: 0.9703, Average IoU: 0.9424</t>
+  </si>
+  <si>
+    <t>Class 1: Average Dice: 0.4839, Average IoU: 0.3300</t>
+  </si>
+  <si>
+    <t>Class 2: Average Dice: 0.6226, Average IoU: 0.4548</t>
+  </si>
+  <si>
+    <t>Class 3: Average Dice: 0.0569, Average IoU: 0.0302</t>
+  </si>
+  <si>
+    <t>Class 4: Average Dice: 0.0177, Average IoU: 0.0090</t>
+  </si>
+  <si>
+    <t>Class 5: Average Dice: 0.4047, Average IoU: 0.2578</t>
+  </si>
+  <si>
+    <t>Class 6: Average Dice: 0.2756, Average IoU: 0.1600</t>
+  </si>
+  <si>
+    <t>Class 7: Average Dice: 0.6047, Average IoU: 0.4368</t>
+  </si>
+  <si>
+    <t>Class 8: Average Dice: 0.4696, Average IoU: 0.3069</t>
+  </si>
+  <si>
+    <t>Class 9: No instances found in test set</t>
+  </si>
+  <si>
+    <t>Class 10: No instances found in test set</t>
+  </si>
+  <si>
+    <t>Class 11: Average Dice: 0.6614, Average IoU: 0.5029</t>
+  </si>
+  <si>
+    <t>Class 12: Average Dice: 0.1716, Average IoU: 0.0939</t>
+  </si>
+  <si>
+    <t>Class 13: Average Dice: 0.0102, Average IoU: 0.0051</t>
+  </si>
+  <si>
+    <t>Class 14: Average Dice: 0.0756, Average IoU: 0.0397</t>
+  </si>
+  <si>
+    <t>Class 15: Average Dice: 0.2974, Average IoU: 0.1748</t>
+  </si>
+  <si>
+    <t>Class 16: Average Dice: 0.3837, Average IoU: 0.2455</t>
+  </si>
+  <si>
+    <t>Class 17: Average Dice: 0.0000, Average IoU: 0.0000</t>
+  </si>
+  <si>
+    <t>Class 18: Average Dice: 0.0000, Average IoU: 0.0000</t>
+  </si>
+  <si>
+    <t>Class 19: No instances found in test set</t>
+  </si>
+  <si>
+    <t>Class 0: Average Dice: 0.9786, Average IoU: 0.9581</t>
+  </si>
+  <si>
+    <t>Class 1: Average Dice: 0.6746, Average IoU: 0.5160</t>
+  </si>
+  <si>
+    <t>Class 2: Average Dice: 0.6892, Average IoU: 0.5415</t>
+  </si>
+  <si>
+    <t>Class 3: Average Dice: 0.7009, Average IoU: 0.5724</t>
+  </si>
+  <si>
+    <t>Class 4: Average Dice: 0.6533, Average IoU: 0.5089</t>
+  </si>
+  <si>
+    <t>Class 5: Average Dice: 0.6641, Average IoU: 0.5236</t>
+  </si>
+  <si>
+    <t>Class 6: Average Dice: 0.6504, Average IoU: 0.5055</t>
+  </si>
+  <si>
+    <t>Class 7: Average Dice: 0.6048, Average IoU: 0.4630</t>
+  </si>
+  <si>
+    <t>Class 8: Average Dice: 0.5335, Average IoU: 0.3904</t>
+  </si>
+  <si>
+    <t>Class 9: Average Dice: 0.3337, Average IoU: 0.2118</t>
+  </si>
+  <si>
+    <t>Class 10: No instances found in test set</t>
+  </si>
+  <si>
+    <t>Class 11: Average Dice: 0.6589, Average IoU: 0.5255</t>
+  </si>
+  <si>
+    <t>Class 12: Average Dice: 0.6369, Average IoU: 0.4970</t>
+  </si>
+  <si>
+    <t>Class 13: Average Dice: 0.6817, Average IoU: 0.5450</t>
+  </si>
+  <si>
+    <t>Class 14: Average Dice: 0.6515, Average IoU: 0.5116</t>
+  </si>
+  <si>
+    <t>Class 15: Average Dice: 0.6805, Average IoU: 0.5386</t>
+  </si>
+  <si>
+    <t>Class 16: Average Dice: 0.6378, Average IoU: 0.4856</t>
+  </si>
+  <si>
+    <t>Class 17: Average Dice: 0.5375, Average IoU: 0.3939</t>
+  </si>
+  <si>
+    <t>Class 18: Average Dice: 0.4764, Average IoU: 0.3268</t>
+  </si>
+  <si>
+    <t>Class 19: No instances found in test set</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4575,6 +4725,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4609,7 +4768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -4623,6 +4782,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9709,15 +9869,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9747,7 +9907,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5194300" y="1409700"/>
+          <a:off x="5203825" y="723900"/>
           <a:ext cx="3949700" cy="2962275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11425,27 +11585,27 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
+      <c r="A101" s="8"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
+      <c r="A102" s="8"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
+      <c r="A103" s="8"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
+      <c r="A104" s="8"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
+      <c r="A105" s="8"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
+      <c r="A106" s="8"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
@@ -11691,10 +11851,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950AE4B7-A117-4882-9E57-17C5D0D817E9}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11724,40 +11884,357 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>1336</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>1345</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C566205-6E19-4AF1-A57C-D7211EA8C8D9}">
+  <dimension ref="B3:O46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>1370</v>
+      </c>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/1.train_results/medsam3d对比综合结果.xlsx
+++ b/1.train_results/medsam3d对比综合结果.xlsx
@@ -8,27 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\3D_segmentation\3D-DRSAM\3D-DRSAM-Github\1.train_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913BDE8-5595-44F5-B006-02CCD3A4F4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9E1978-C6E1-49E6-86A0-707F90BEF7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" tabRatio="916" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21150" yWindow="15540" windowWidth="14880" windowHeight="10710" tabRatio="916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="611SamMED3d" sheetId="1" r:id="rId1"/>
-    <sheet name="611DRSam" sheetId="2" r:id="rId2"/>
-    <sheet name="612ASammed3d" sheetId="3" r:id="rId3"/>
-    <sheet name="612DrSAM" sheetId="4" r:id="rId4"/>
-    <sheet name="613SAMmed3d" sheetId="5" r:id="rId5"/>
-    <sheet name="614SAMMED3D" sheetId="6" r:id="rId6"/>
-    <sheet name="0616Drsam" sheetId="8" r:id="rId7"/>
-    <sheet name="0616Med3D推论阶段" sheetId="7" r:id="rId8"/>
-    <sheet name="0617SAM对比试验" sheetId="9" r:id="rId9"/>
-    <sheet name="0618对比实验" sheetId="10" r:id="rId10"/>
-    <sheet name="0620MemorizingSAM" sheetId="11" r:id="rId11"/>
-    <sheet name="0621Fastsam+Medical-samadapter" sheetId="12" r:id="rId12"/>
-    <sheet name="0625-3Dunet" sheetId="13" r:id="rId13"/>
+    <sheet name="0626-resizesam3d" sheetId="15" r:id="rId1"/>
+    <sheet name="611SamMED3d" sheetId="1" r:id="rId2"/>
+    <sheet name="611DRSam" sheetId="2" r:id="rId3"/>
+    <sheet name="612ASammed3d" sheetId="3" r:id="rId4"/>
+    <sheet name="612DrSAM" sheetId="4" r:id="rId5"/>
+    <sheet name="613SAMmed3d" sheetId="5" r:id="rId6"/>
+    <sheet name="614SAMMED3D" sheetId="6" r:id="rId7"/>
+    <sheet name="0616Drsam" sheetId="8" r:id="rId8"/>
+    <sheet name="0616Med3D推论阶段" sheetId="7" r:id="rId9"/>
+    <sheet name="0617SAM对比试验" sheetId="9" r:id="rId10"/>
+    <sheet name="0618对比实验" sheetId="10" r:id="rId11"/>
+    <sheet name="0620MemorizingSAM" sheetId="11" r:id="rId12"/>
+    <sheet name="0621Fastsam+Medical-samadapter" sheetId="12" r:id="rId13"/>
+    <sheet name="0625-3Dunet" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="1394">
   <si>
     <t>5e-6 steplr-10）</t>
   </si>
@@ -4666,6 +4666,29 @@
   </si>
   <si>
     <t>Class 19: No instances found in test set</t>
+  </si>
+  <si>
+    <t>以loss为准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加了个onehot编码后，DICE--&gt;0.69+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learningrate 5e-05</t>
+  </si>
+  <si>
+    <t>100%|█████████████████████████████████████████████| 5/5 [00:12&lt;00:00,  2.54s/it]</t>
+  </si>
+  <si>
+    <t>Epoch: 43/199</t>
+  </si>
+  <si>
+    <t>EPOCH: 42, Loss: 139.06492614746094</t>
+  </si>
+  <si>
+    <t>EPOCH: 42, Dice: 0.753633451461792</t>
   </si>
 </sst>
 </file>
@@ -8705,6 +8728,827 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>500775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599E95E1-577C-B3CC-AC6C-9FF4E55A62A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="638175" y="552450"/>
+          <a:ext cx="1920000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640EE9E7-B5E1-D8D6-F4CB-E3E6E417F01C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="2009775"/>
+          <a:ext cx="1920000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>310275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CF5FEA-4A35-C1FF-A676-536B947FB8B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2505075" y="2009775"/>
+          <a:ext cx="1920000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>462675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>39825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F412BBCD-5C5F-8925-FA4C-8862E0E6CE17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2657475" y="3486150"/>
+          <a:ext cx="1920000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464D7F83-AA74-638E-9984-D9BD108CF68A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="723900" y="3495675"/>
+          <a:ext cx="1920000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605752</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E36CF6-5F0A-66DD-F3F1-08BBD4B8BEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685802" y="1104901"/>
+          <a:ext cx="5400000" cy="2583971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>2227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E33F986-DF3A-0A0C-1E72-0303F637FF1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6134100"/>
+          <a:ext cx="4680000" cy="3821752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>51921</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941BDFD9-CF5E-1D2D-8693-628721F9E44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10496550"/>
+          <a:ext cx="7595721" cy="2371725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>75732</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832BA3E6-6599-C4F3-F066-B7D364485873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695326" y="400050"/>
+          <a:ext cx="5552606" cy="4838700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AD1FAF-B63F-ED07-2091-14BB2313D8D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2533650"/>
+          <a:ext cx="3552825" cy="2664619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27723</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>37877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD292E2C-EB99-EF57-3488-12EB66B6D160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="3324225"/>
+          <a:ext cx="6819048" cy="1780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3534EF31-F868-6015-6362-0CF691576B02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190500" y="7658100"/>
+          <a:ext cx="4276725" cy="3207544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>346833</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9B6794-3B64-63CB-F1E7-D0E390FC2BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742951" y="790575"/>
+          <a:ext cx="4404482" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EE4F0D-6392-5C30-1028-C99D0EA67480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5203825" y="723900"/>
+          <a:ext cx="3949700" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647191</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>379833</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>122936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22016637-6A16-AA98-EC6F-7B249A079DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647191" y="5038725"/>
+          <a:ext cx="5904842" cy="4494911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25679</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -9600,381 +10444,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>75732</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832BA3E6-6599-C4F3-F066-B7D364485873}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="695326" y="400050"/>
-          <a:ext cx="5552606" cy="4838700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AD1FAF-B63F-ED07-2091-14BB2313D8D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2533650"/>
-          <a:ext cx="3552825" cy="2664619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>27723</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>37877</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD292E2C-EB99-EF57-3488-12EB66B6D160}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3495675" y="3324225"/>
-          <a:ext cx="6819048" cy="1780952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>7144</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3534EF31-F868-6015-6362-0CF691576B02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="190500" y="7658100"/>
-          <a:ext cx="4276725" cy="3207544"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>346833</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9B6794-3B64-63CB-F1E7-D0E390FC2BAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="742951" y="790575"/>
-          <a:ext cx="4404482" cy="3352800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EE4F0D-6392-5C30-1028-C99D0EA67480}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5203825" y="723900"/>
-          <a:ext cx="3949700" cy="2962275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647191</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>379833</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>122936</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22016637-6A16-AA98-EC6F-7B249A079DE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="647191" y="5038725"/>
-          <a:ext cx="5904842" cy="4494911"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10023,7 +10493,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10526,7 +10996,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10751,7 +11221,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10792,7 +11262,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10913,7 +11383,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10962,7 +11432,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11101,143 +11571,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>605752</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12222</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E36CF6-5F0A-66DD-F3F1-08BBD4B8BEB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685802" y="1104901"/>
-          <a:ext cx="5400000" cy="2583971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>565200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>2227</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E33F986-DF3A-0A0C-1E72-0303F637FF1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="6134100"/>
-          <a:ext cx="4680000" cy="3821752"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>51921</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941BDFD9-CF5E-1D2D-8693-628721F9E44F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="10496550"/>
-          <a:ext cx="7595721" cy="2371725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -11507,6 +11840,776 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAD8574-748E-45B3-A3A8-66785C73D902}">
+  <dimension ref="B2:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D5D62F-9B9D-406B-82F4-55BCF9DF9315}">
+  <dimension ref="B2:K58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B33" r:id="rId1" display="https://arxiv.org/pdf/2306.14752" xr:uid="{D6681FBA-2211-42F4-9248-E5ABA0DCB9F9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B9D49A-6C6C-4815-9280-636F7902765E}">
+  <dimension ref="B2:L58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0.34210000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0.84140000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0.70540000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.91139999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0.74470000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0.71050000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0.68140000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0.85860000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0.59570000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E75CF6-AA58-420E-9259-DA8A0C213ED2}">
+  <dimension ref="A11:A40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950AE4B7-A117-4882-9E57-17C5D0D817E9}">
+  <dimension ref="A1:M80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C566205-6E19-4AF1-A57C-D7211EA8C8D9}">
+  <dimension ref="B3:O46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>1370</v>
+      </c>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J109"/>
   <sheetViews>
@@ -11635,610 +12738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B9D49A-6C6C-4815-9280-636F7902765E}">
-  <dimension ref="B2:L58"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0.34210000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K50">
-        <v>2</v>
-      </c>
-      <c r="L50" s="3">
-        <v>0.84140000000000004</v>
-      </c>
-    </row>
-    <row r="51" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K51">
-        <v>3</v>
-      </c>
-      <c r="L51" s="3">
-        <v>0.70540000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K52">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0.91139999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K53">
-        <v>5</v>
-      </c>
-      <c r="L53" s="3">
-        <v>0.74470000000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0.71050000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55" s="3">
-        <v>0.68140000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K56">
-        <v>3</v>
-      </c>
-      <c r="L56" s="3">
-        <v>0.85860000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K57">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0.93799999999999994</v>
-      </c>
-    </row>
-    <row r="58" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K58">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0.59570000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E75CF6-AA58-420E-9259-DA8A0C213ED2}">
-  <dimension ref="A11:A40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950AE4B7-A117-4882-9E57-17C5D0D817E9}">
-  <dimension ref="A1:M80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C566205-6E19-4AF1-A57C-D7211EA8C8D9}">
-  <dimension ref="B3:O46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>1370</v>
-      </c>
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC9C2AE-8A28-49AA-8D34-DCCFD939114C}">
   <dimension ref="B23:D24"/>
   <sheetViews>
@@ -12274,7 +12774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4B223-936E-40BE-A72E-98594FE17EA4}">
   <dimension ref="A15:I42"/>
   <sheetViews>
@@ -12401,7 +12901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCD5E49-DEEE-4BA1-A7EE-14E9CCE7A542}">
   <dimension ref="B2:F49"/>
   <sheetViews>
@@ -12474,7 +12974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D975ED08-9776-4FE7-AA80-39E3611627A6}">
   <dimension ref="C2:R68"/>
   <sheetViews>
@@ -13208,7 +13708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3F4367-336D-41F1-88FA-91FECF5CB7D9}">
   <dimension ref="B2:BK152"/>
   <sheetViews>
@@ -16389,7 +16889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2A8029-F213-4270-BA1C-5E4336E3244A}">
   <dimension ref="B20"/>
   <sheetViews>
@@ -16411,7 +16911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43216F67-C082-4A49-AB2A-AED68F3257C1}">
   <dimension ref="B1:AU193"/>
   <sheetViews>
@@ -20258,119 +20758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D5D62F-9B9D-406B-82F4-55BCF9DF9315}">
-  <dimension ref="B2:K58"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>1289</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K7" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K8" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>1298</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>1297</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>1296</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" display="https://arxiv.org/pdf/2306.14752" xr:uid="{D6681FBA-2211-42F4-9248-E5ABA0DCB9F9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>